--- a/biology/Zoologie/Aperioptus/Aperioptus.xlsx
+++ b/biology/Zoologie/Aperioptus/Aperioptus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aperioptus est un genre de poissons téléostéens  de l'ordre des Cypriniformes et de la famille des Cobitidae. Les espèces de ce genre vivent uniquement dans le Sud-Est de l'Asie.
 Synonyme
-Acanthopsoides Fowler, 1934[1] reconnu par WoRMS et d'autres bases de données.
+Acanthopsoides Fowler, 1934 reconnu par WoRMS et d'autres bases de données.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Page, L.M. &amp; Tangjitjaroen, W., 2015[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Page, L.M. &amp; Tangjitjaroen, W., 2015:
 Aperioptus delphax (Siebert, 1991)
 Aperioptus gracilentus (H. M. Smith, 1945)
 Aperioptus gracilis (Fowler, 1934)
